--- a/2021/day6.xlsx
+++ b/2021/day6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\adventofcode\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFEACEF-7202-43FC-B8A2-3B909A3AF809}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F923D4C-3388-48D9-A357-D68240F5C697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="672" windowWidth="20940" windowHeight="11388" xr2:uid="{536DC1C7-A390-42BC-812E-73FA20C13047}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="20940" windowHeight="11388" xr2:uid="{536DC1C7-A390-42BC-812E-73FA20C13047}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
-  <si>
-    <t>"NULL"</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,7 +394,7 @@
   <dimension ref="A1:R301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,11 +455,11 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:J3" si="0">COUNTIF($M$2:$M$301,C2)</f>
+        <f t="shared" ref="C3:G3" si="0">COUNTIF($M$2:$M$301,C2)</f>
         <v>84</v>
       </c>
       <c r="D3">
@@ -482,13 +478,13 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
         <v>0</v>
       </c>
       <c r="L3">
@@ -504,40 +500,40 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>IF(C3="""NULL""","""NULL""",C3)</f>
+        <f>C3</f>
         <v>84</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:I19" si="1">IF(D3="""NULL""","""NULL""",D3)</f>
+        <f>D3</f>
         <v>59</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f>E3</f>
         <v>54</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f>F3</f>
         <v>48</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f>G3</f>
         <v>55</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
-      </c>
-      <c r="H4" t="str">
-        <f>IF(B3="""NULL""",IF(I3 = """NULL""","""NULL""",I3),IF(I3="""NULL""",B3,I3+B3))</f>
-        <v>"NULL"</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
-      </c>
-      <c r="J4" t="str">
-        <f>IF(B3="""NULL""","""NULL""",B3)</f>
-        <v>"NULL"</v>
+      <c r="G4">
+        <f>H3</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>I3+B3</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>B3</f>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -548,36 +544,36 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:I20" si="2">IF(C4="""NULL""","""NULL""",C4)</f>
+        <f t="shared" ref="B5:I20" si="1">IF(C4="""NULL""","""NULL""",C4)</f>
         <v>59</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C4:I19" si="2">IF(D4="""NULL""","""NULL""",D4)</f>
         <v>54</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H68" si="3">IF(B4="""NULL""",IF(I4 = """NULL""","""NULL""",I4),IF(I4="""NULL""",B4,I4+B4))</f>
         <v>84</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5" si="4">IF(B4="""NULL""","""NULL""",B4)</f>
@@ -592,27 +588,27 @@
         <v>3</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="H6">
@@ -620,7 +616,7 @@
         <v>59</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="J6">
@@ -636,27 +632,27 @@
         <v>4</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="H7">
@@ -664,7 +660,7 @@
         <v>138</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="J7">
@@ -680,27 +676,27 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="H8">
@@ -708,7 +704,7 @@
         <v>107</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="J8">
@@ -723,28 +719,28 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="2"/>
-        <v>"NULL"</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="H9">
@@ -752,7 +748,7 @@
         <v>109</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="J9">
@@ -767,28 +763,28 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="2"/>
-        <v>"NULL"</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="H10">
@@ -796,12 +792,12 @@
         <v>48</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10">
         <f t="shared" si="5"/>
-        <v>"NULL"</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -812,40 +808,40 @@
         <v>8</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
-      </c>
-      <c r="J11" t="str">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="5"/>
-        <v>"NULL"</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -856,36 +852,36 @@
         <v>9</v>
       </c>
       <c r="B12">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>"NULL"</v>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
@@ -900,27 +896,27 @@
         <v>10</v>
       </c>
       <c r="B13">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="H13">
@@ -928,7 +924,7 @@
         <v>59</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="J13">
@@ -944,27 +940,27 @@
         <v>11</v>
       </c>
       <c r="B14">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="H14">
@@ -972,7 +968,7 @@
         <v>222</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="J14">
@@ -988,27 +984,27 @@
         <v>12</v>
       </c>
       <c r="B15">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="H15">
@@ -1016,7 +1012,7 @@
         <v>166</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="J15">
@@ -1032,27 +1028,27 @@
         <v>13</v>
       </c>
       <c r="B16">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="H16">
@@ -1060,7 +1056,7 @@
         <v>247</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="J16">
@@ -1076,27 +1072,27 @@
         <v>14</v>
       </c>
       <c r="B17">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>247</v>
       </c>
       <c r="H17">
@@ -1104,7 +1100,7 @@
         <v>155</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="J17">
@@ -1120,27 +1116,27 @@
         <v>15</v>
       </c>
       <c r="B18">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>247</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="H18">
@@ -1148,7 +1144,7 @@
         <v>164</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="J18">
@@ -1164,27 +1160,27 @@
         <v>16</v>
       </c>
       <c r="B19">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>247</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="H19">
@@ -1192,7 +1188,7 @@
         <v>132</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="J19">
@@ -1208,27 +1204,27 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>155</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="H20">
@@ -1236,7 +1232,7 @@
         <v>114</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="J20">
